--- a/Swedish 6/swedishwords.xlsx
+++ b/Swedish 6/swedishwords.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\stockholm\NO5\Swedish 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4ADCA69-166D-49DD-A879-4182DB6B8C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D12F80-1B3B-4A9E-B121-C5C8F6CB52D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="P003" sheetId="1" r:id="rId1"/>
+    <sheet name="P004-005" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="234">
   <si>
     <t>Berättande</t>
   </si>
@@ -460,6 +461,273 @@
   </si>
   <si>
     <t>粘贴</t>
+  </si>
+  <si>
+    <t>flyt</t>
+  </si>
+  <si>
+    <t>fluency</t>
+  </si>
+  <si>
+    <t>流畅</t>
+  </si>
+  <si>
+    <t>förståelse</t>
+  </si>
+  <si>
+    <t>understanding</t>
+  </si>
+  <si>
+    <t>理解</t>
+  </si>
+  <si>
+    <t>authors</t>
+  </si>
+  <si>
+    <t>beskrivningar</t>
+  </si>
+  <si>
+    <t>descriptions</t>
+  </si>
+  <si>
+    <t>描写, 描述</t>
+  </si>
+  <si>
+    <t>dialoger</t>
+  </si>
+  <si>
+    <t>dialogues</t>
+  </si>
+  <si>
+    <t>对话</t>
+  </si>
+  <si>
+    <t>genomföra</t>
+  </si>
+  <si>
+    <t>implement, get sth done</t>
+  </si>
+  <si>
+    <t>完成，实现</t>
+  </si>
+  <si>
+    <t>muntlig</t>
+  </si>
+  <si>
+    <t>oral</t>
+  </si>
+  <si>
+    <t>口头的</t>
+  </si>
+  <si>
+    <t>medier</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>媒体</t>
+  </si>
+  <si>
+    <t>digitala medier</t>
+  </si>
+  <si>
+    <t>digital media</t>
+  </si>
+  <si>
+    <t>数字媒体</t>
+  </si>
+  <si>
+    <t>anpassa</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>调整</t>
+  </si>
+  <si>
+    <t>skräcknovell</t>
+  </si>
+  <si>
+    <t>horror novel</t>
+  </si>
+  <si>
+    <t>恐怖小说</t>
+  </si>
+  <si>
+    <t>beskrivande</t>
+  </si>
+  <si>
+    <t>descriptive</t>
+  </si>
+  <si>
+    <t>描述性的</t>
+  </si>
+  <si>
+    <t>levande</t>
+  </si>
+  <si>
+    <t>vivid</t>
+  </si>
+  <si>
+    <t>生动的</t>
+  </si>
+  <si>
+    <t>stava</t>
+  </si>
+  <si>
+    <t>spell</t>
+  </si>
+  <si>
+    <t>拼写</t>
+  </si>
+  <si>
+    <t>Klara</t>
+  </si>
+  <si>
+    <t>Ready</t>
+  </si>
+  <si>
+    <t>färdiga</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>就绪</t>
+  </si>
+  <si>
+    <t>gastkramande</t>
+  </si>
+  <si>
+    <t>Heart-wrenching</t>
+  </si>
+  <si>
+    <t>扣人心弦的， 揪心的</t>
+  </si>
+  <si>
+    <t>skri</t>
+  </si>
+  <si>
+    <t>尖叫声</t>
+  </si>
+  <si>
+    <t>scream</t>
+  </si>
+  <si>
+    <t>ekade</t>
+  </si>
+  <si>
+    <t>echoed</t>
+  </si>
+  <si>
+    <t>回荡</t>
+  </si>
+  <si>
+    <t>platsen</t>
+  </si>
+  <si>
+    <t>the scene</t>
+  </si>
+  <si>
+    <t>现场</t>
+  </si>
+  <si>
+    <t>någon gång</t>
+  </si>
+  <si>
+    <t>at some point in time</t>
+  </si>
+  <si>
+    <t>某个时候</t>
+  </si>
+  <si>
+    <t>ifrån</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>从</t>
+  </si>
+  <si>
+    <t>verkligen</t>
+  </si>
+  <si>
+    <t>确实</t>
+  </si>
+  <si>
+    <t>really, indeed</t>
+  </si>
+  <si>
+    <t>upplevelse</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>经历</t>
+  </si>
+  <si>
+    <t>funderat</t>
+  </si>
+  <si>
+    <t>thought, reflected</t>
+  </si>
+  <si>
+    <t>想过</t>
+  </si>
+  <si>
+    <t>fånga</t>
+  </si>
+  <si>
+    <t>capture</t>
+  </si>
+  <si>
+    <t>抓住</t>
+  </si>
+  <si>
+    <t>närmare</t>
+  </si>
+  <si>
+    <t>closer</t>
+  </si>
+  <si>
+    <t>更近的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titta </t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t xml:space="preserve">få titta närmare </t>
+  </si>
+  <si>
+    <t xml:space="preserve">get a closer look </t>
+  </si>
+  <si>
+    <t>仔细看看, 更近一步看到</t>
+  </si>
+  <si>
+    <t>sist</t>
+  </si>
+  <si>
+    <t>at the end， the last</t>
+  </si>
+  <si>
+    <t>最后</t>
+  </si>
+  <si>
+    <t>nervkittlande</t>
+  </si>
+  <si>
+    <t>nerve-wracking</t>
+  </si>
+  <si>
+    <t>令人紧张的</t>
   </si>
 </sst>
 </file>
@@ -779,7 +1047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection sqref="A1:A50"/>
     </sheetView>
   </sheetViews>
@@ -1340,4 +1608,374 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AF301F-FDF4-4BB4-9CAB-2F8018F25188}">
+  <dimension ref="B1:D33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="7.7890625" customWidth="1"/>
+    <col min="2" max="2" width="18.734375" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="26.3125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" t="s">
+        <v>225</v>
+      </c>
+      <c r="C13" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" t="s">
+        <v>229</v>
+      </c>
+      <c r="D14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" t="s">
+        <v>232</v>
+      </c>
+      <c r="D15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" t="s">
+        <v>177</v>
+      </c>
+      <c r="D22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" t="s">
+        <v>162</v>
+      </c>
+      <c r="D25" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" t="s">
+        <v>167</v>
+      </c>
+      <c r="C27" t="s">
+        <v>168</v>
+      </c>
+      <c r="D27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" t="s">
+        <v>171</v>
+      </c>
+      <c r="D28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" t="s">
+        <v>180</v>
+      </c>
+      <c r="D30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" t="s">
+        <v>183</v>
+      </c>
+      <c r="D31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" t="s">
+        <v>187</v>
+      </c>
+      <c r="C33" t="s">
+        <v>188</v>
+      </c>
+      <c r="D33" t="s">
+        <v>189</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>